--- a/team_specific_matrix/Harvard_A.xlsx
+++ b/team_specific_matrix/Harvard_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2157894736842105</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5368421052631579</v>
+        <v>0.553030303030303</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005263157894736842</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1473684210526316</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09473684210526316</v>
+        <v>0.08712121212121213</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0198019801980198</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0198019801980198</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7029702970297029</v>
+        <v>0.7210884353741497</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2574257425742574</v>
+        <v>0.2312925170068027</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1071428571428571</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3928571428571428</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05357142857142857</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008928571428571428</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03571428571428571</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1875</v>
+        <v>0.1751412429378531</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02678571428571428</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1517857142857143</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="R6">
-        <v>0.08035714285714286</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="S6">
-        <v>0.4553571428571428</v>
+        <v>0.4406779661016949</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1744186046511628</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02325581395348837</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06976744186046512</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08139534883720931</v>
+        <v>0.07518796992481203</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01162790697674419</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1744186046511628</v>
+        <v>0.1879699248120301</v>
       </c>
       <c r="R7">
-        <v>0.05813953488372093</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="S7">
-        <v>0.4069767441860465</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1217391304347826</v>
+        <v>0.1161473087818697</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01739130434782609</v>
+        <v>0.0141643059490085</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06086956521739131</v>
+        <v>0.05382436260623229</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08260869565217391</v>
+        <v>0.0906515580736544</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.0056657223796034</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1608695652173913</v>
+        <v>0.1614730878186969</v>
       </c>
       <c r="R8">
-        <v>0.1</v>
+        <v>0.09348441926345609</v>
       </c>
       <c r="S8">
-        <v>0.4565217391304348</v>
+        <v>0.4645892351274787</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02307692307692308</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1076923076923077</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01538461538461539</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="R9">
-        <v>0.05384615384615385</v>
+        <v>0.078125</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.3802083333333333</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1294298921417565</v>
+        <v>0.1143410852713178</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02773497688751926</v>
+        <v>0.02616279069767442</v>
       </c>
       <c r="E10">
-        <v>0.003081664098613251</v>
+        <v>0.002906976744186046</v>
       </c>
       <c r="F10">
-        <v>0.07550077041602465</v>
+        <v>0.07267441860465117</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1032357473035439</v>
+        <v>0.1124031007751938</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.006163328197226503</v>
+        <v>0.009689922480620155</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1910631741140216</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="R10">
-        <v>0.08628659476117104</v>
+        <v>0.08624031007751938</v>
       </c>
       <c r="S10">
-        <v>0.3775038520801233</v>
+        <v>0.3701550387596899</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1732283464566929</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1102362204724409</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="K11">
-        <v>0.2204724409448819</v>
+        <v>0.2292682926829268</v>
       </c>
       <c r="L11">
-        <v>0.4881889763779528</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007874015748031496</v>
+        <v>0.00975609756097561</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7575757575757576</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1212121212121212</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="K12">
-        <v>0.04545454545454546</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L12">
-        <v>0.04545454545454546</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0303030303030303</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6153846153846154</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3461538461538461</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03846153846153846</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1416666666666667</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="I15">
-        <v>0.1</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="J15">
-        <v>0.4333333333333333</v>
+        <v>0.4438202247191011</v>
       </c>
       <c r="K15">
-        <v>0.1166666666666667</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01666666666666667</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04166666666666666</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.15</v>
+        <v>0.1685393258426966</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009433962264150943</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1226415094339623</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="I16">
-        <v>0.1132075471698113</v>
+        <v>0.1146496815286624</v>
       </c>
       <c r="J16">
-        <v>0.4622641509433962</v>
+        <v>0.4394904458598726</v>
       </c>
       <c r="K16">
-        <v>0.02830188679245283</v>
+        <v>0.04458598726114649</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03773584905660377</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07547169811320754</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1509433962264151</v>
+        <v>0.1592356687898089</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01818181818181818</v>
+        <v>0.025</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1818181818181818</v>
+        <v>0.1694444444444445</v>
       </c>
       <c r="I17">
-        <v>0.09090909090909091</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="J17">
-        <v>0.4318181818181818</v>
+        <v>0.4194444444444445</v>
       </c>
       <c r="K17">
-        <v>0.04545454545454546</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01363636363636364</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07727272727272727</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1409090909090909</v>
+        <v>0.1611111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.18</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.08</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="J18">
-        <v>0.41</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="K18">
-        <v>0.15</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.11</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00715307582260372</v>
+        <v>0.005499541704857928</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2002861230329042</v>
+        <v>0.1943171402383135</v>
       </c>
       <c r="I19">
-        <v>0.1101573676680973</v>
+        <v>0.0999083409715857</v>
       </c>
       <c r="J19">
-        <v>0.3676680972818312</v>
+        <v>0.3730522456461962</v>
       </c>
       <c r="K19">
-        <v>0.07582260371959942</v>
+        <v>0.08615948670944087</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02718168812589413</v>
+        <v>0.02841429880843263</v>
       </c>
       <c r="N19">
-        <v>0.001430615164520744</v>
+        <v>0.0009165902841429881</v>
       </c>
       <c r="O19">
-        <v>0.09012875536480687</v>
+        <v>0.08799266727772685</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1201716738197425</v>
+        <v>0.1237396883593034</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Harvard_A.xlsx
+++ b/team_specific_matrix/Harvard_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2083333333333333</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="C2">
-        <v>0.553030303030303</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003787878787878788</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1477272727272727</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08712121212121213</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0272108843537415</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02040816326530612</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7210884353741497</v>
+        <v>0.7228915662650602</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2312925170068027</v>
+        <v>0.2289156626506024</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.131578947368421</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5263157894736842</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3421052631578947</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05084745762711865</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005649717514124294</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06214689265536723</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1751412429378531</v>
+        <v>0.1761658031088083</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02824858757062147</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1412429378531073</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="R6">
-        <v>0.096045197740113</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="S6">
-        <v>0.4406779661016949</v>
+        <v>0.4507772020725389</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1578947368421053</v>
+        <v>0.1575342465753425</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01503759398496241</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06766917293233082</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07518796992481203</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007518796992481203</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1879699248120301</v>
+        <v>0.1849315068493151</v>
       </c>
       <c r="R7">
-        <v>0.06015037593984962</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="S7">
-        <v>0.4285714285714285</v>
+        <v>0.4178082191780822</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1161473087818697</v>
+        <v>0.1128608923884514</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0141643059490085</v>
+        <v>0.01312335958005249</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05382436260623229</v>
+        <v>0.05774278215223097</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0906515580736544</v>
+        <v>0.09711286089238845</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0056657223796034</v>
+        <v>0.005249343832020997</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1614730878186969</v>
+        <v>0.1627296587926509</v>
       </c>
       <c r="R8">
-        <v>0.09348441926345609</v>
+        <v>0.08923884514435695</v>
       </c>
       <c r="S8">
-        <v>0.4645892351274787</v>
+        <v>0.4619422572178478</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08333333333333333</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02083333333333333</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09895833333333333</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1197916666666667</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01041666666666667</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2083333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.078125</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="S9">
-        <v>0.3802083333333333</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1143410852713178</v>
+        <v>0.1154529307282416</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02616279069767442</v>
+        <v>0.02486678507992895</v>
       </c>
       <c r="E10">
-        <v>0.002906976744186046</v>
+        <v>0.003552397868561279</v>
       </c>
       <c r="F10">
-        <v>0.07267441860465117</v>
+        <v>0.07104795737122557</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1124031007751938</v>
+        <v>0.1136767317939609</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009689922480620155</v>
+        <v>0.009769094138543518</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2054263565891473</v>
+        <v>0.2015985790408526</v>
       </c>
       <c r="R10">
-        <v>0.08624031007751938</v>
+        <v>0.08880994671403197</v>
       </c>
       <c r="S10">
-        <v>0.3701550387596899</v>
+        <v>0.3712255772646537</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1707317073170732</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1024390243902439</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="K11">
-        <v>0.2292682926829268</v>
+        <v>0.2300884955752212</v>
       </c>
       <c r="L11">
-        <v>0.4878048780487805</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00975609756097561</v>
+        <v>0.008849557522123894</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7211538461538461</v>
+        <v>0.7280701754385965</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1730769230769231</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="K12">
-        <v>0.03846153846153846</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="L12">
-        <v>0.02884615384615385</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03846153846153846</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6136363636363636</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3181818181818182</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1573033707865168</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="I15">
-        <v>0.07865168539325842</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="J15">
-        <v>0.4438202247191011</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="K15">
-        <v>0.08426966292134831</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01123595505617977</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05617977528089887</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1685393258426966</v>
+        <v>0.1746031746031746</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006369426751592357</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1464968152866242</v>
+        <v>0.138728323699422</v>
       </c>
       <c r="I16">
-        <v>0.1146496815286624</v>
+        <v>0.1213872832369942</v>
       </c>
       <c r="J16">
-        <v>0.4394904458598726</v>
+        <v>0.4508670520231214</v>
       </c>
       <c r="K16">
-        <v>0.04458598726114649</v>
+        <v>0.04624277456647399</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03184713375796178</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05732484076433121</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1592356687898089</v>
+        <v>0.1560693641618497</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.025</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1694444444444445</v>
+        <v>0.1658031088082902</v>
       </c>
       <c r="I17">
-        <v>0.09444444444444444</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="J17">
-        <v>0.4194444444444445</v>
+        <v>0.422279792746114</v>
       </c>
       <c r="K17">
-        <v>0.05833333333333333</v>
+        <v>0.05958549222797927</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01388888888888889</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05833333333333333</v>
+        <v>0.05440414507772021</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1611111111111111</v>
+        <v>0.1632124352331606</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02469135802469136</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1666666666666667</v>
+        <v>0.1807909604519774</v>
       </c>
       <c r="I18">
-        <v>0.09259259259259259</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="J18">
-        <v>0.4197530864197531</v>
+        <v>0.4124293785310734</v>
       </c>
       <c r="K18">
-        <v>0.09876543209876543</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01851851851851852</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0308641975308642</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1481481481481481</v>
+        <v>0.1468926553672316</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.005499541704857928</v>
+        <v>0.005857740585774059</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1943171402383135</v>
+        <v>0.1907949790794979</v>
       </c>
       <c r="I19">
-        <v>0.0999083409715857</v>
+        <v>0.09958158995815899</v>
       </c>
       <c r="J19">
-        <v>0.3730522456461962</v>
+        <v>0.3707112970711297</v>
       </c>
       <c r="K19">
-        <v>0.08615948670944087</v>
+        <v>0.08870292887029289</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02841429880843263</v>
+        <v>0.02594142259414226</v>
       </c>
       <c r="N19">
-        <v>0.0009165902841429881</v>
+        <v>0.0008368200836820083</v>
       </c>
       <c r="O19">
-        <v>0.08799266727772685</v>
+        <v>0.08702928870292886</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1237396883593034</v>
+        <v>0.1305439330543933</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Harvard_A.xlsx
+++ b/team_specific_matrix/Harvard_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2013888888888889</v>
+        <v>0.2013201320132013</v>
       </c>
       <c r="C2">
-        <v>0.5694444444444444</v>
+        <v>0.5610561056105611</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003472222222222222</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1423611111111111</v>
+        <v>0.1452145214521452</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08333333333333333</v>
+        <v>0.0891089108910891</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C3">
-        <v>0.03012048192771084</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01807228915662651</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7228915662650602</v>
+        <v>0.7151162790697675</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2289156626506024</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1282051282051282</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5128205128205128</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.358974358974359</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05181347150259067</v>
+        <v>0.04830917874396135</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005181347150259068</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05699481865284974</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1761658031088083</v>
+        <v>0.178743961352657</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02590673575129534</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1398963730569948</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="R6">
-        <v>0.09326424870466321</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S6">
-        <v>0.4507772020725389</v>
+        <v>0.4541062801932367</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1575342465753425</v>
+        <v>0.1483870967741935</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0136986301369863</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0684931506849315</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08904109589041095</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0136986301369863</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1849315068493151</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="R7">
-        <v>0.0547945205479452</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="S7">
-        <v>0.4178082191780822</v>
+        <v>0.4387096774193548</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1128608923884514</v>
+        <v>0.115839243498818</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01312335958005249</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05774278215223097</v>
+        <v>0.05437352245862884</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09711286089238845</v>
+        <v>0.1016548463356974</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.005249343832020997</v>
+        <v>0.004728132387706856</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1627296587926509</v>
+        <v>0.1631205673758865</v>
       </c>
       <c r="R8">
-        <v>0.08923884514435695</v>
+        <v>0.09456264775413711</v>
       </c>
       <c r="S8">
-        <v>0.4619422572178478</v>
+        <v>0.4515366430260047</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09523809523809523</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01904761904761905</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09523809523809523</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1285714285714286</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009523809523809525</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.1955555555555556</v>
       </c>
       <c r="R9">
-        <v>0.08095238095238096</v>
+        <v>0.07555555555555556</v>
       </c>
       <c r="S9">
-        <v>0.3714285714285714</v>
+        <v>0.3777777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1154529307282416</v>
+        <v>0.1104699093157461</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02486678507992895</v>
+        <v>0.02390766694146744</v>
       </c>
       <c r="E10">
-        <v>0.003552397868561279</v>
+        <v>0.003297609233305853</v>
       </c>
       <c r="F10">
-        <v>0.07104795737122557</v>
+        <v>0.07502061005770816</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1136767317939609</v>
+        <v>0.1112943116240726</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009769094138543518</v>
+        <v>0.01071723000824402</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2015985790408526</v>
+        <v>0.2019785655399835</v>
       </c>
       <c r="R10">
-        <v>0.08880994671403197</v>
+        <v>0.0898598516075845</v>
       </c>
       <c r="S10">
-        <v>0.3712255772646537</v>
+        <v>0.3734542456718879</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1769911504424779</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09734513274336283</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="K11">
-        <v>0.2300884955752212</v>
+        <v>0.226890756302521</v>
       </c>
       <c r="L11">
-        <v>0.4867256637168141</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008849557522123894</v>
+        <v>0.008403361344537815</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7280701754385965</v>
+        <v>0.7235772357723578</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1754385964912281</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="K12">
-        <v>0.03508771929824561</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="L12">
-        <v>0.02631578947368421</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03508771929824561</v>
+        <v>0.03252032520325204</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6222222222222222</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3111111111111111</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.06382978723404255</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1693121693121693</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="I15">
-        <v>0.07936507936507936</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="J15">
-        <v>0.4338624338624338</v>
+        <v>0.4195121951219512</v>
       </c>
       <c r="K15">
-        <v>0.07936507936507936</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01058201058201058</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05291005291005291</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1746031746031746</v>
+        <v>0.1902439024390244</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005780346820809248</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.138728323699422</v>
+        <v>0.143646408839779</v>
       </c>
       <c r="I16">
-        <v>0.1213872832369942</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="J16">
-        <v>0.4508670520231214</v>
+        <v>0.4530386740331492</v>
       </c>
       <c r="K16">
-        <v>0.04624277456647399</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02890173410404624</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05202312138728324</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1560693641618497</v>
+        <v>0.1491712707182321</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02590673575129534</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1658031088082902</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="I17">
-        <v>0.09326424870466321</v>
+        <v>0.09375</v>
       </c>
       <c r="J17">
-        <v>0.422279792746114</v>
+        <v>0.4278846153846154</v>
       </c>
       <c r="K17">
-        <v>0.05958549222797927</v>
+        <v>0.06009615384615385</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0155440414507772</v>
+        <v>0.01682692307692308</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05440414507772021</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1632124352331606</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02259887005649718</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1807909604519774</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="I18">
-        <v>0.096045197740113</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="J18">
-        <v>0.4124293785310734</v>
+        <v>0.4020618556701031</v>
       </c>
       <c r="K18">
-        <v>0.0903954802259887</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01694915254237288</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03389830508474576</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1468926553672316</v>
+        <v>0.1443298969072165</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.005857740585774059</v>
+        <v>0.006216006216006216</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1907949790794979</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="I19">
-        <v>0.09958158995815899</v>
+        <v>0.1002331002331002</v>
       </c>
       <c r="J19">
-        <v>0.3707112970711297</v>
+        <v>0.372960372960373</v>
       </c>
       <c r="K19">
-        <v>0.08870292887029289</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02594142259414226</v>
+        <v>0.02408702408702409</v>
       </c>
       <c r="N19">
-        <v>0.0008368200836820083</v>
+        <v>0.000777000777000777</v>
       </c>
       <c r="O19">
-        <v>0.08702928870292886</v>
+        <v>0.08702408702408702</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1305439330543933</v>
+        <v>0.1266511266511267</v>
       </c>
     </row>
   </sheetData>
